--- a/data/pca/factorExposure/factorExposure_2019-03-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1205498535376545</v>
+        <v>0.07654777915964241</v>
       </c>
       <c r="C2">
-        <v>-0.005603884178286063</v>
+        <v>-0.03606974422776094</v>
       </c>
       <c r="D2">
-        <v>-0.05184220180791237</v>
+        <v>-0.01171726855823397</v>
       </c>
       <c r="E2">
-        <v>0.119594971251818</v>
+        <v>0.04098399801186518</v>
       </c>
       <c r="F2">
-        <v>-0.1104657382777025</v>
+        <v>-0.140470555060415</v>
       </c>
       <c r="G2">
-        <v>-0.01882135453042893</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1020173332403821</v>
+      </c>
+      <c r="H2">
+        <v>0.05940077274140181</v>
+      </c>
+      <c r="I2">
+        <v>-0.04107713720429226</v>
+      </c>
+      <c r="J2">
+        <v>-0.06428112378123757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2260973605749689</v>
+        <v>0.1674680488792804</v>
       </c>
       <c r="C3">
-        <v>-0.1298682573896554</v>
+        <v>-0.09305365972311462</v>
       </c>
       <c r="D3">
-        <v>0.04116018819954591</v>
+        <v>0.038180921750498</v>
       </c>
       <c r="E3">
-        <v>0.3332399136741502</v>
+        <v>-0.008068078388189568</v>
       </c>
       <c r="F3">
-        <v>-0.02523408354045515</v>
+        <v>-0.3745219179231774</v>
       </c>
       <c r="G3">
-        <v>-0.1229689090804334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.08452635004616466</v>
+      </c>
+      <c r="H3">
+        <v>0.2741548094827583</v>
+      </c>
+      <c r="I3">
+        <v>-0.2219063183862435</v>
+      </c>
+      <c r="J3">
+        <v>-0.2147799469052092</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09429131715656755</v>
+        <v>0.07481501433636704</v>
       </c>
       <c r="C4">
-        <v>-0.04164876705231792</v>
+        <v>-0.03554416426194967</v>
       </c>
       <c r="D4">
-        <v>-0.02817525554744194</v>
+        <v>0.02822890010981905</v>
       </c>
       <c r="E4">
-        <v>0.07395054575963432</v>
+        <v>0.03786425609352068</v>
       </c>
       <c r="F4">
-        <v>-0.038197520284181</v>
+        <v>-0.08162911063877719</v>
       </c>
       <c r="G4">
-        <v>-0.02902334745018301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04640251831304326</v>
+      </c>
+      <c r="H4">
+        <v>0.02325464734517544</v>
+      </c>
+      <c r="I4">
+        <v>-0.04364744237014672</v>
+      </c>
+      <c r="J4">
+        <v>-0.0539596727340152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01799891511195893</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.008329668520522204</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.009625659425598846</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005955709509760179</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.002633973185770197</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02087812912333986</v>
+      </c>
+      <c r="H6">
+        <v>-0.0005811122310548728</v>
+      </c>
+      <c r="I6">
+        <v>0.01294040156314441</v>
+      </c>
+      <c r="J6">
+        <v>-0.00346019197359218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04227276015690302</v>
+        <v>0.03518154697894504</v>
       </c>
       <c r="C7">
-        <v>-0.01185086107034911</v>
+        <v>-0.003654346413518714</v>
       </c>
       <c r="D7">
-        <v>-0.03486465167230147</v>
+        <v>0.0398762526829979</v>
       </c>
       <c r="E7">
-        <v>0.07464012737429572</v>
+        <v>0.0291091450878244</v>
       </c>
       <c r="F7">
-        <v>0.05297970021283126</v>
+        <v>-0.05569667420183444</v>
       </c>
       <c r="G7">
-        <v>0.008909112673875104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.007631952102258345</v>
+      </c>
+      <c r="H7">
+        <v>0.04544380504993716</v>
+      </c>
+      <c r="I7">
+        <v>-0.009389301003665208</v>
+      </c>
+      <c r="J7">
+        <v>-0.05393247771459211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04302467132710743</v>
+        <v>0.03061532928726765</v>
       </c>
       <c r="C8">
-        <v>-0.05126926733027315</v>
+        <v>-0.04140442774222666</v>
       </c>
       <c r="D8">
-        <v>-0.005010716736370174</v>
+        <v>0.0307578917304036</v>
       </c>
       <c r="E8">
-        <v>0.06910756087942037</v>
+        <v>0.01808971639383569</v>
       </c>
       <c r="F8">
-        <v>-0.007735871477932085</v>
+        <v>-0.07228737115132837</v>
       </c>
       <c r="G8">
-        <v>-0.0152615369351381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02041037145118874</v>
+      </c>
+      <c r="H8">
+        <v>0.04404620476727784</v>
+      </c>
+      <c r="I8">
+        <v>-0.04553802987760656</v>
+      </c>
+      <c r="J8">
+        <v>-0.05525626209282028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08292906398942064</v>
+        <v>0.06198156292291913</v>
       </c>
       <c r="C9">
-        <v>-0.03840588350884326</v>
+        <v>-0.03142718725220404</v>
       </c>
       <c r="D9">
-        <v>-0.03540940340580233</v>
+        <v>0.03193033888676992</v>
       </c>
       <c r="E9">
-        <v>0.05844057481981749</v>
+        <v>0.03351754930224114</v>
       </c>
       <c r="F9">
-        <v>-0.02509834762563212</v>
+        <v>-0.08180290049148703</v>
       </c>
       <c r="G9">
-        <v>-0.04578529353759369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04235081950287936</v>
+      </c>
+      <c r="H9">
+        <v>0.02095759756532721</v>
+      </c>
+      <c r="I9">
+        <v>-0.02216382565404636</v>
+      </c>
+      <c r="J9">
+        <v>-0.03578407843815192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.009625146822334193</v>
+        <v>0.02470465176431556</v>
       </c>
       <c r="C10">
-        <v>0.1572315743621575</v>
+        <v>0.1383932229091745</v>
       </c>
       <c r="D10">
-        <v>0.02934153603226656</v>
+        <v>-0.06846706746814847</v>
       </c>
       <c r="E10">
-        <v>0.07628608655607966</v>
+        <v>-0.02668284715259125</v>
       </c>
       <c r="F10">
-        <v>-0.01870621851627321</v>
+        <v>-0.07222118523760661</v>
       </c>
       <c r="G10">
-        <v>0.01891331487916793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02290034244817032</v>
+      </c>
+      <c r="H10">
+        <v>0.001428804849187002</v>
+      </c>
+      <c r="I10">
+        <v>-0.1039726968012856</v>
+      </c>
+      <c r="J10">
+        <v>0.0254111513834418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05798247790552385</v>
+        <v>0.05011735233500424</v>
       </c>
       <c r="C11">
-        <v>-0.01300289352957701</v>
+        <v>-0.02822578409069132</v>
       </c>
       <c r="D11">
-        <v>0.006070381465717456</v>
+        <v>0.003238123220784085</v>
       </c>
       <c r="E11">
-        <v>0.04300227168488846</v>
+        <v>0.008485260649180544</v>
       </c>
       <c r="F11">
-        <v>-0.005322589342820858</v>
+        <v>-0.04078952615886165</v>
       </c>
       <c r="G11">
-        <v>0.0221213277069782</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.006834461602156323</v>
+      </c>
+      <c r="H11">
+        <v>0.0007456880324001237</v>
+      </c>
+      <c r="I11">
+        <v>0.002414138977913887</v>
+      </c>
+      <c r="J11">
+        <v>-0.04547131018502911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04344595046358088</v>
+        <v>0.04613065972185291</v>
       </c>
       <c r="C12">
-        <v>-0.01810920585746923</v>
+        <v>-0.02118284248506563</v>
       </c>
       <c r="D12">
-        <v>0.002819523775584454</v>
+        <v>0.01233903425143394</v>
       </c>
       <c r="E12">
-        <v>0.03174373683149934</v>
+        <v>0.0112057603712816</v>
       </c>
       <c r="F12">
-        <v>0.004279712290560139</v>
+        <v>-0.0182107086029545</v>
       </c>
       <c r="G12">
-        <v>-0.0004668836729819132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.001989436245975577</v>
+      </c>
+      <c r="H12">
+        <v>0.003493195362843574</v>
+      </c>
+      <c r="I12">
+        <v>0.00448622287708618</v>
+      </c>
+      <c r="J12">
+        <v>-0.03025681243480424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.0643992520216083</v>
+        <v>0.0433506752974106</v>
       </c>
       <c r="C13">
-        <v>-0.02531281059139124</v>
+        <v>-0.03014092663068532</v>
       </c>
       <c r="D13">
-        <v>0.006702257909627431</v>
+        <v>-0.005028070273608223</v>
       </c>
       <c r="E13">
-        <v>0.1095131562476319</v>
+        <v>0.008880572422094869</v>
       </c>
       <c r="F13">
-        <v>-0.01436315147255325</v>
+        <v>-0.1044163582536043</v>
       </c>
       <c r="G13">
-        <v>0.002280972451634662</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.01991655551812924</v>
+      </c>
+      <c r="H13">
+        <v>0.04564153352334889</v>
+      </c>
+      <c r="I13">
+        <v>-0.01946709589684709</v>
+      </c>
+      <c r="J13">
+        <v>-0.05760397822752014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03353910092989423</v>
+        <v>0.02848949871922168</v>
       </c>
       <c r="C14">
-        <v>-0.01649186573344869</v>
+        <v>-0.0153017493376958</v>
       </c>
       <c r="D14">
-        <v>-0.02639378502687145</v>
+        <v>0.01127499859227154</v>
       </c>
       <c r="E14">
-        <v>0.02762301537701078</v>
+        <v>0.02538533751785392</v>
       </c>
       <c r="F14">
-        <v>-0.01008127717627286</v>
+        <v>-0.04031790957891475</v>
       </c>
       <c r="G14">
-        <v>0.03642441861549101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02771710225468031</v>
+      </c>
+      <c r="H14">
+        <v>0.05142983409039868</v>
+      </c>
+      <c r="I14">
+        <v>-0.01076489654145761</v>
+      </c>
+      <c r="J14">
+        <v>-0.01462942380428698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.0465031309718069</v>
+        <v>0.04442640618105557</v>
       </c>
       <c r="C16">
-        <v>-0.02845763478164964</v>
+        <v>-0.03325888273887397</v>
       </c>
       <c r="D16">
-        <v>0.009662127985350225</v>
+        <v>0.01195352566685298</v>
       </c>
       <c r="E16">
-        <v>0.03472536104061266</v>
+        <v>0.005328142945494227</v>
       </c>
       <c r="F16">
-        <v>0.007207601896687817</v>
+        <v>-0.03430099876263896</v>
       </c>
       <c r="G16">
-        <v>0.008433755183112885</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005461246869611325</v>
+      </c>
+      <c r="H16">
+        <v>0.008106450262837909</v>
+      </c>
+      <c r="I16">
+        <v>0.002016577231692793</v>
+      </c>
+      <c r="J16">
+        <v>-0.03896457798527365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05236781719671103</v>
+        <v>0.04768437128547053</v>
       </c>
       <c r="C19">
-        <v>-0.03674398292771853</v>
+        <v>-0.04116919017241069</v>
       </c>
       <c r="D19">
-        <v>0.00486043529061336</v>
+        <v>0.01489854743220347</v>
       </c>
       <c r="E19">
-        <v>0.07664242696572673</v>
+        <v>0.01793781838109393</v>
       </c>
       <c r="F19">
-        <v>0.01811425326148184</v>
+        <v>-0.08176455350551366</v>
       </c>
       <c r="G19">
-        <v>0.0248880024793194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.008631795663572783</v>
+      </c>
+      <c r="H19">
+        <v>0.08056522993608385</v>
+      </c>
+      <c r="I19">
+        <v>-0.04359796962280719</v>
+      </c>
+      <c r="J19">
+        <v>-0.04327524503258429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03736555739465725</v>
+        <v>0.01924730285328708</v>
       </c>
       <c r="C20">
-        <v>-0.04158228828172969</v>
+        <v>-0.02632941863100506</v>
       </c>
       <c r="D20">
-        <v>-0.0148378454397462</v>
+        <v>0.01793452509355159</v>
       </c>
       <c r="E20">
-        <v>0.06592701078241063</v>
+        <v>0.01911513247179359</v>
       </c>
       <c r="F20">
-        <v>0.01239071668603065</v>
+        <v>-0.06673447690281585</v>
       </c>
       <c r="G20">
-        <v>0.01182439967892055</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01248058546744098</v>
+      </c>
+      <c r="H20">
+        <v>0.06844333773867406</v>
+      </c>
+      <c r="I20">
+        <v>-0.03078755010819893</v>
+      </c>
+      <c r="J20">
+        <v>-0.07491110703625067</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.04104138382813224</v>
+        <v>0.02686921622000185</v>
       </c>
       <c r="C21">
-        <v>-0.03460649680045916</v>
+        <v>-0.02632853046652685</v>
       </c>
       <c r="D21">
-        <v>-0.006729531156488754</v>
+        <v>0.02666330693434522</v>
       </c>
       <c r="E21">
-        <v>0.0951307291714531</v>
+        <v>0.008614328286801752</v>
       </c>
       <c r="F21">
-        <v>-0.04769938461842216</v>
+        <v>-0.07675484925746549</v>
       </c>
       <c r="G21">
-        <v>0.02488895358914011</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03398828622892852</v>
+      </c>
+      <c r="H21">
+        <v>0.02185881329504836</v>
+      </c>
+      <c r="I21">
+        <v>0.0009175561132079827</v>
+      </c>
+      <c r="J21">
+        <v>-0.03414900633578574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04956487324539798</v>
+        <v>0.04383143524293494</v>
       </c>
       <c r="C24">
-        <v>-0.0194287799432038</v>
+        <v>-0.02180220831918512</v>
       </c>
       <c r="D24">
-        <v>0.00267841140684872</v>
+        <v>0.007000578937753093</v>
       </c>
       <c r="E24">
-        <v>0.04519738861007011</v>
+        <v>0.0102205193998845</v>
       </c>
       <c r="F24">
-        <v>0.005826805427793345</v>
+        <v>-0.04112782453074305</v>
       </c>
       <c r="G24">
-        <v>0.0009861904350593406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.004710151400511463</v>
+      </c>
+      <c r="H24">
+        <v>0.007475913114717877</v>
+      </c>
+      <c r="I24">
+        <v>-0.002376862713811408</v>
+      </c>
+      <c r="J24">
+        <v>-0.0440727425406513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05165849070339593</v>
+        <v>0.04634827447667466</v>
       </c>
       <c r="C25">
-        <v>-0.00951947983944171</v>
+        <v>-0.02157748213116454</v>
       </c>
       <c r="D25">
-        <v>0.003903020022949146</v>
+        <v>0.005569588622792541</v>
       </c>
       <c r="E25">
-        <v>0.04210809453110938</v>
+        <v>0.00867510530726889</v>
       </c>
       <c r="F25">
-        <v>-0.007012738905397925</v>
+        <v>-0.04489678959673325</v>
       </c>
       <c r="G25">
-        <v>0.01005240904492958</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.00439859416758319</v>
+      </c>
+      <c r="H25">
+        <v>-0.001041577355117118</v>
+      </c>
+      <c r="I25">
+        <v>0.004870226975880001</v>
+      </c>
+      <c r="J25">
+        <v>-0.03825750685280394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.01630481565270022</v>
+        <v>0.01666066519180668</v>
       </c>
       <c r="C26">
-        <v>-0.02766563773403415</v>
+        <v>-0.02408513096090091</v>
       </c>
       <c r="D26">
-        <v>-0.002343047990324027</v>
+        <v>0.005536615602919268</v>
       </c>
       <c r="E26">
-        <v>0.03444264316142789</v>
+        <v>0.001323447016841037</v>
       </c>
       <c r="F26">
-        <v>-0.0192264910862321</v>
+        <v>-0.04632943603292371</v>
       </c>
       <c r="G26">
-        <v>0.02789911012927343</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02016318312156206</v>
+      </c>
+      <c r="H26">
+        <v>0.03140638190976044</v>
+      </c>
+      <c r="I26">
+        <v>-0.003037926074336218</v>
+      </c>
+      <c r="J26">
+        <v>-0.04022730387742351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1154419844845595</v>
+        <v>0.07814831377524867</v>
       </c>
       <c r="C27">
-        <v>-0.03215290339359427</v>
+        <v>-0.0266204807645511</v>
       </c>
       <c r="D27">
-        <v>-0.02345339995542608</v>
+        <v>0.01375611913600697</v>
       </c>
       <c r="E27">
-        <v>0.09710679573049044</v>
+        <v>0.03397402641067074</v>
       </c>
       <c r="F27">
-        <v>-0.008331487922555784</v>
+        <v>-0.06815929930610401</v>
       </c>
       <c r="G27">
-        <v>-0.008863283069585018</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01635787285305356</v>
+      </c>
+      <c r="H27">
+        <v>0.01301947171323028</v>
+      </c>
+      <c r="I27">
+        <v>-0.03103247761735601</v>
+      </c>
+      <c r="J27">
+        <v>-0.03853771820176582</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.01027197786734209</v>
+        <v>0.04172217416171854</v>
       </c>
       <c r="C28">
-        <v>0.2418882330054261</v>
+        <v>0.2165279873198321</v>
       </c>
       <c r="D28">
-        <v>0.02857085536613705</v>
+        <v>-0.09522182708360918</v>
       </c>
       <c r="E28">
-        <v>0.04960892636841054</v>
+        <v>-0.04280075021078341</v>
       </c>
       <c r="F28">
-        <v>-0.02659873182522376</v>
+        <v>-0.05748441223877085</v>
       </c>
       <c r="G28">
-        <v>0.002761256287536833</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02452663660211239</v>
+      </c>
+      <c r="H28">
+        <v>-0.002365059733209285</v>
+      </c>
+      <c r="I28">
+        <v>-0.1506133125077456</v>
+      </c>
+      <c r="J28">
+        <v>0.02426880882111097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02186868241699131</v>
+        <v>0.02235206521427847</v>
       </c>
       <c r="C29">
-        <v>-0.02266945138323384</v>
+        <v>-0.01548211598855811</v>
       </c>
       <c r="D29">
-        <v>-0.03011778237928949</v>
+        <v>0.01682075778787914</v>
       </c>
       <c r="E29">
-        <v>0.02966348579783474</v>
+        <v>0.02655006581109524</v>
       </c>
       <c r="F29">
-        <v>-0.01585736305743043</v>
+        <v>-0.03610499430373049</v>
       </c>
       <c r="G29">
-        <v>0.02758842471669486</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02920003612643053</v>
+      </c>
+      <c r="H29">
+        <v>0.04930237645425687</v>
+      </c>
+      <c r="I29">
+        <v>-0.003450785963962722</v>
+      </c>
+      <c r="J29">
+        <v>-0.01002586614612925</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1069080870838278</v>
+        <v>0.09150474520695033</v>
       </c>
       <c r="C30">
-        <v>-0.01999501241228481</v>
+        <v>-0.05832213062975046</v>
       </c>
       <c r="D30">
-        <v>-0.02541693316046</v>
+        <v>-0.01904768744802476</v>
       </c>
       <c r="E30">
-        <v>0.1087928369103542</v>
+        <v>0.03097062937603883</v>
       </c>
       <c r="F30">
-        <v>0.001861606720583395</v>
+        <v>-0.1028452441778651</v>
       </c>
       <c r="G30">
-        <v>0.03805906723079584</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01505144704311007</v>
+      </c>
+      <c r="H30">
+        <v>0.02159569540695384</v>
+      </c>
+      <c r="I30">
+        <v>0.009119365894647572</v>
+      </c>
+      <c r="J30">
+        <v>-0.03246420765372016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.06405912667300595</v>
+        <v>0.0635422238549973</v>
       </c>
       <c r="C31">
-        <v>-0.0204146464931057</v>
+        <v>-0.02463393153428528</v>
       </c>
       <c r="D31">
-        <v>-0.01877502732966379</v>
+        <v>-0.003064573755898101</v>
       </c>
       <c r="E31">
-        <v>-0.01776039803412429</v>
+        <v>0.02307586044988025</v>
       </c>
       <c r="F31">
-        <v>-0.01077903089025949</v>
+        <v>-0.002223728193178157</v>
       </c>
       <c r="G31">
-        <v>0.05997947375885984</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04045449333011754</v>
+      </c>
+      <c r="H31">
+        <v>0.03146657213799181</v>
+      </c>
+      <c r="I31">
+        <v>-0.01364872873294704</v>
+      </c>
+      <c r="J31">
+        <v>-0.01403272146182487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06594630692444935</v>
+        <v>0.04473239045506408</v>
       </c>
       <c r="C32">
-        <v>-0.0335512199672903</v>
+        <v>-0.03969267879014245</v>
       </c>
       <c r="D32">
-        <v>-0.009710735606612734</v>
+        <v>0.03144594053659504</v>
       </c>
       <c r="E32">
-        <v>0.1077637675828061</v>
+        <v>0.02813936945332287</v>
       </c>
       <c r="F32">
-        <v>0.01079546796608687</v>
+        <v>-0.08718397127500091</v>
       </c>
       <c r="G32">
-        <v>0.02918158500959965</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01208007310675946</v>
+      </c>
+      <c r="H32">
+        <v>0.03979948128975461</v>
+      </c>
+      <c r="I32">
+        <v>-0.03053539947515745</v>
+      </c>
+      <c r="J32">
+        <v>-0.04325135176620307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06700959425391739</v>
+        <v>0.05811908687433857</v>
       </c>
       <c r="C33">
-        <v>-0.04302918639135362</v>
+        <v>-0.05425056139404788</v>
       </c>
       <c r="D33">
-        <v>-0.01058011376202284</v>
+        <v>0.001166333885797351</v>
       </c>
       <c r="E33">
-        <v>0.07226060082539938</v>
+        <v>0.01038678347015674</v>
       </c>
       <c r="F33">
-        <v>-0.04656999811721033</v>
+        <v>-0.07825044837267801</v>
       </c>
       <c r="G33">
-        <v>0.01715775361470594</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03503236226067064</v>
+      </c>
+      <c r="H33">
+        <v>0.03596028474206216</v>
+      </c>
+      <c r="I33">
+        <v>0.001992739692825808</v>
+      </c>
+      <c r="J33">
+        <v>-0.05441537894919859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04572685573957536</v>
+        <v>0.04577967503491475</v>
       </c>
       <c r="C34">
-        <v>-0.01914122860989814</v>
+        <v>-0.0272284705859878</v>
       </c>
       <c r="D34">
-        <v>0.0005435463795795121</v>
+        <v>0.0144335365420142</v>
       </c>
       <c r="E34">
-        <v>0.0265956440606148</v>
+        <v>0.01529037626189238</v>
       </c>
       <c r="F34">
-        <v>0.005040854528512821</v>
+        <v>-0.03146825602194166</v>
       </c>
       <c r="G34">
-        <v>0.01091558705928538</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0002958966444966492</v>
+      </c>
+      <c r="H34">
+        <v>0.01173668918198048</v>
+      </c>
+      <c r="I34">
+        <v>0.002115105959384539</v>
+      </c>
+      <c r="J34">
+        <v>-0.03456470487705117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01287814208866819</v>
+        <v>0.0162390984740763</v>
       </c>
       <c r="C36">
-        <v>0.003634457408859192</v>
+        <v>-0.0003403019941633538</v>
       </c>
       <c r="D36">
-        <v>-0.006575110612580467</v>
+        <v>0.004792765524418872</v>
       </c>
       <c r="E36">
-        <v>0.02269880589400997</v>
+        <v>0.009897909636342432</v>
       </c>
       <c r="F36">
-        <v>-0.009251819771991528</v>
+        <v>-0.02874063738753298</v>
       </c>
       <c r="G36">
-        <v>0.02328722116370747</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02340642245326195</v>
+      </c>
+      <c r="H36">
+        <v>0.0275696374549853</v>
+      </c>
+      <c r="I36">
+        <v>0.003654872069131082</v>
+      </c>
+      <c r="J36">
+        <v>-0.004651403772708586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05758691544611265</v>
+        <v>0.03590155811105342</v>
       </c>
       <c r="C38">
-        <v>-0.01548543110808866</v>
+        <v>-0.0134461967158832</v>
       </c>
       <c r="D38">
-        <v>-0.02645653325354425</v>
+        <v>0.007943002467334533</v>
       </c>
       <c r="E38">
-        <v>0.03181868136020766</v>
+        <v>0.01318148171453352</v>
       </c>
       <c r="F38">
-        <v>-0.003451356922530637</v>
+        <v>-0.05084304337714491</v>
       </c>
       <c r="G38">
-        <v>-0.02106534241584686</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02813477010442818</v>
+      </c>
+      <c r="H38">
+        <v>0.01273938772564052</v>
+      </c>
+      <c r="I38">
+        <v>0.01301595120716668</v>
+      </c>
+      <c r="J38">
+        <v>-0.005426381015757114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07222526197086042</v>
+        <v>0.05763222671144608</v>
       </c>
       <c r="C39">
-        <v>-0.01763836113378428</v>
+        <v>-0.04006461887638558</v>
       </c>
       <c r="D39">
-        <v>-0.003431422777536511</v>
+        <v>0.009611169384881222</v>
       </c>
       <c r="E39">
-        <v>0.04312012874322037</v>
+        <v>0.0169729131776464</v>
       </c>
       <c r="F39">
-        <v>-0.0179095140496467</v>
+        <v>-0.05571731631878819</v>
       </c>
       <c r="G39">
-        <v>0.01083124589123648</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01687107752404099</v>
+      </c>
+      <c r="H39">
+        <v>0.001237243479902999</v>
+      </c>
+      <c r="I39">
+        <v>0.02307222537811458</v>
+      </c>
+      <c r="J39">
+        <v>-0.04989045601114215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07467703616534914</v>
+        <v>0.05723038254423573</v>
       </c>
       <c r="C40">
-        <v>-0.04141455804504438</v>
+        <v>-0.04648459474358832</v>
       </c>
       <c r="D40">
-        <v>-0.007965508795054175</v>
+        <v>-0.004740038011886219</v>
       </c>
       <c r="E40">
-        <v>0.1065072983829085</v>
+        <v>0.02353016411633649</v>
       </c>
       <c r="F40">
-        <v>-0.03075666958050694</v>
+        <v>-0.09567055569497437</v>
       </c>
       <c r="G40">
-        <v>-0.03417334227523341</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02165126213538146</v>
+      </c>
+      <c r="H40">
+        <v>0.05274041872889258</v>
+      </c>
+      <c r="I40">
+        <v>-0.03248581550250575</v>
+      </c>
+      <c r="J40">
+        <v>-0.1124315443808968</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003288152086152172</v>
+        <v>0.003607837616362492</v>
       </c>
       <c r="C41">
-        <v>-0.01651487817446501</v>
+        <v>-0.01150224710317</v>
       </c>
       <c r="D41">
-        <v>-0.02466532545495477</v>
+        <v>0.005551673386472976</v>
       </c>
       <c r="E41">
-        <v>0.01419714353671046</v>
+        <v>0.008294569421546523</v>
       </c>
       <c r="F41">
-        <v>-0.03208290805846876</v>
+        <v>-0.01490123979481992</v>
       </c>
       <c r="G41">
-        <v>0.03241804002539729</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03595216278881132</v>
+      </c>
+      <c r="H41">
+        <v>0.03167079626214275</v>
+      </c>
+      <c r="I41">
+        <v>-0.0230874187763541</v>
+      </c>
+      <c r="J41">
+        <v>-0.007761196355836047</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1486852153582528</v>
+        <v>0.2205866327121759</v>
       </c>
       <c r="C42">
-        <v>-0.2140990395386283</v>
+        <v>-0.2165688023540431</v>
       </c>
       <c r="D42">
-        <v>0.925031305425504</v>
+        <v>0.02822927939513548</v>
       </c>
       <c r="E42">
-        <v>-0.1014618225945169</v>
+        <v>-0.9233480312460173</v>
       </c>
       <c r="F42">
-        <v>0.03722221626158055</v>
+        <v>0.1465030392303722</v>
       </c>
       <c r="G42">
-        <v>0.08714219703794564</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.006035231116177203</v>
+      </c>
+      <c r="H42">
+        <v>-0.000319527644295295</v>
+      </c>
+      <c r="I42">
+        <v>-0.05227469932664401</v>
+      </c>
+      <c r="J42">
+        <v>-0.02029118056155088</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.004812020211866008</v>
+        <v>0.005697351953582981</v>
       </c>
       <c r="C43">
-        <v>-0.01894271141529151</v>
+        <v>-0.01489341045456326</v>
       </c>
       <c r="D43">
-        <v>-0.01628620200264001</v>
+        <v>0.004097861748791759</v>
       </c>
       <c r="E43">
-        <v>0.03704026357321403</v>
+        <v>0.008573479442029819</v>
       </c>
       <c r="F43">
-        <v>-0.008167176187204323</v>
+        <v>-0.02970834749012765</v>
       </c>
       <c r="G43">
-        <v>0.02307640782163578</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02024812227409191</v>
+      </c>
+      <c r="H43">
+        <v>0.03070605370689918</v>
+      </c>
+      <c r="I43">
+        <v>-0.01643823340352852</v>
+      </c>
+      <c r="J43">
+        <v>-0.01829709240021662</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04010654896246973</v>
+        <v>0.02880503273652883</v>
       </c>
       <c r="C44">
-        <v>-0.05153528837952597</v>
+        <v>-0.04038842833236411</v>
       </c>
       <c r="D44">
-        <v>-0.01516339001756893</v>
+        <v>0.01855088413906419</v>
       </c>
       <c r="E44">
-        <v>0.1248532747441737</v>
+        <v>0.01048698428210055</v>
       </c>
       <c r="F44">
-        <v>-0.09038276496467713</v>
+        <v>-0.1227299737743912</v>
       </c>
       <c r="G44">
-        <v>0.0340146985034962</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.05884592499914697</v>
+      </c>
+      <c r="H44">
+        <v>0.1015765156031216</v>
+      </c>
+      <c r="I44">
+        <v>-0.02444792757305009</v>
+      </c>
+      <c r="J44">
+        <v>-0.02681737732574916</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02751577134158042</v>
+        <v>0.02615178234992301</v>
       </c>
       <c r="C46">
-        <v>-0.02187196123896043</v>
+        <v>-0.03358425175576887</v>
       </c>
       <c r="D46">
-        <v>-0.03037956034762558</v>
+        <v>0.01138151248791134</v>
       </c>
       <c r="E46">
-        <v>0.02636904005747762</v>
+        <v>0.02874804076088415</v>
       </c>
       <c r="F46">
-        <v>-0.0241166760531365</v>
+        <v>-0.04631958805145298</v>
       </c>
       <c r="G46">
-        <v>0.03469258397171821</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02511279335728696</v>
+      </c>
+      <c r="H46">
+        <v>0.05078228118090247</v>
+      </c>
+      <c r="I46">
+        <v>-0.004086091933019272</v>
+      </c>
+      <c r="J46">
+        <v>-0.02250209746480713</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08810966149928617</v>
+        <v>0.09227803594615051</v>
       </c>
       <c r="C47">
-        <v>-0.01369247223952392</v>
+        <v>-0.01768700290704298</v>
       </c>
       <c r="D47">
-        <v>-0.01740685241768349</v>
+        <v>-0.001012205169933785</v>
       </c>
       <c r="E47">
-        <v>-0.02153377577483258</v>
+        <v>0.02588680929329936</v>
       </c>
       <c r="F47">
-        <v>-0.01043618029569151</v>
+        <v>0.01140694178563355</v>
       </c>
       <c r="G47">
-        <v>0.0326503355256513</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04194793565163969</v>
+      </c>
+      <c r="H47">
+        <v>0.05595614751984348</v>
+      </c>
+      <c r="I47">
+        <v>-0.02066357267026405</v>
+      </c>
+      <c r="J47">
+        <v>-0.02319354603829643</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01782796845015252</v>
+        <v>0.0192861058836395</v>
       </c>
       <c r="C48">
-        <v>-0.02249438156808316</v>
+        <v>-0.01815889102807578</v>
       </c>
       <c r="D48">
-        <v>-0.0145221559208099</v>
+        <v>0.009101761341989669</v>
       </c>
       <c r="E48">
-        <v>0.0274696529733853</v>
+        <v>0.01359924154226409</v>
       </c>
       <c r="F48">
-        <v>-0.01046581678768975</v>
+        <v>-0.03052007827791694</v>
       </c>
       <c r="G48">
-        <v>0.01160366535923459</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01483878723816671</v>
+      </c>
+      <c r="H48">
+        <v>0.02072216736930596</v>
+      </c>
+      <c r="I48">
+        <v>-0.01410980953504479</v>
+      </c>
+      <c r="J48">
+        <v>-0.01284535931348169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.08972445578971611</v>
+        <v>0.08978833181583032</v>
       </c>
       <c r="C50">
-        <v>-0.04249792854183579</v>
+        <v>-0.03272301204223182</v>
       </c>
       <c r="D50">
-        <v>-0.0271320356223295</v>
+        <v>0.02324818982880172</v>
       </c>
       <c r="E50">
-        <v>-0.01518695268474904</v>
+        <v>0.02459161964333612</v>
       </c>
       <c r="F50">
-        <v>0.003085640808375814</v>
+        <v>0.003784937962294475</v>
       </c>
       <c r="G50">
-        <v>0.04590784306440064</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.0002849076119388321</v>
+      </c>
+      <c r="H50">
+        <v>0.03881383074394849</v>
+      </c>
+      <c r="I50">
+        <v>0.006444771418469319</v>
+      </c>
+      <c r="J50">
+        <v>-0.01011755926751296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.05748943574445519</v>
+        <v>0.04445199816837874</v>
       </c>
       <c r="C51">
-        <v>0.02065697478274788</v>
+        <v>-0.0004199213795736873</v>
       </c>
       <c r="D51">
-        <v>0.006881600374333741</v>
+        <v>-0.01556626642386574</v>
       </c>
       <c r="E51">
-        <v>0.08144133787183697</v>
+        <v>0.008514581985888576</v>
       </c>
       <c r="F51">
-        <v>-0.0488430999392138</v>
+        <v>-0.09271683765396713</v>
       </c>
       <c r="G51">
-        <v>0.07530944294712073</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0507776382388552</v>
+      </c>
+      <c r="H51">
+        <v>0.05435744321626147</v>
+      </c>
+      <c r="I51">
+        <v>-0.03490263164769449</v>
+      </c>
+      <c r="J51">
+        <v>-0.03945353428397051</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1438036996113269</v>
+        <v>0.1266278752953164</v>
       </c>
       <c r="C53">
-        <v>-0.01381277656478081</v>
+        <v>-0.03479990136543346</v>
       </c>
       <c r="D53">
-        <v>-0.0516474386333543</v>
+        <v>0.004490221717183062</v>
       </c>
       <c r="E53">
-        <v>-0.04997871770256726</v>
+        <v>0.05012807738247173</v>
       </c>
       <c r="F53">
-        <v>0.007566787852633755</v>
+        <v>0.0397439330006733</v>
       </c>
       <c r="G53">
-        <v>0.03887024559942637</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02344717837401762</v>
+      </c>
+      <c r="H53">
+        <v>-0.001276401688931591</v>
+      </c>
+      <c r="I53">
+        <v>-0.03869863442383096</v>
+      </c>
+      <c r="J53">
+        <v>-0.02728976488146468</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02699025628290606</v>
+        <v>0.02557049880205002</v>
       </c>
       <c r="C54">
-        <v>-0.005120499473763115</v>
+        <v>-0.001373153635177607</v>
       </c>
       <c r="D54">
-        <v>-0.02602931448037478</v>
+        <v>0.00522997018772345</v>
       </c>
       <c r="E54">
-        <v>0.03469301858096593</v>
+        <v>0.02668860248234892</v>
       </c>
       <c r="F54">
-        <v>-0.05063360501637608</v>
+        <v>-0.03738709479478031</v>
       </c>
       <c r="G54">
-        <v>0.01989662093500248</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0513255522404976</v>
+      </c>
+      <c r="H54">
+        <v>0.0421552412789129</v>
+      </c>
+      <c r="I54">
+        <v>-0.02500657311117729</v>
+      </c>
+      <c r="J54">
+        <v>0.008806229924936191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09878497969544957</v>
+        <v>0.1010704826798838</v>
       </c>
       <c r="C55">
-        <v>0.0005443362463937412</v>
+        <v>-0.01550172859319226</v>
       </c>
       <c r="D55">
-        <v>-0.03962597698631526</v>
+        <v>0.01613291511838837</v>
       </c>
       <c r="E55">
-        <v>-0.01022975177153822</v>
+        <v>0.03268163448420719</v>
       </c>
       <c r="F55">
-        <v>0.03412848765594061</v>
+        <v>0.02853761699226979</v>
       </c>
       <c r="G55">
-        <v>-0.006837820869394155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.005246933139479692</v>
+      </c>
+      <c r="H55">
+        <v>0.01348979718402606</v>
+      </c>
+      <c r="I55">
+        <v>-0.0198135021640336</v>
+      </c>
+      <c r="J55">
+        <v>-0.02681848416670359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1766097869242174</v>
+        <v>0.1684307068740342</v>
       </c>
       <c r="C56">
-        <v>0.009265059809487162</v>
+        <v>-0.01356263332886572</v>
       </c>
       <c r="D56">
-        <v>-0.09256209494532569</v>
+        <v>0.003284148901591614</v>
       </c>
       <c r="E56">
-        <v>-0.09893549882929481</v>
+        <v>0.08568547396403581</v>
       </c>
       <c r="F56">
-        <v>0.08088472918114432</v>
+        <v>0.08667378159834924</v>
       </c>
       <c r="G56">
-        <v>0.007464999341882988</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02623588807300228</v>
+      </c>
+      <c r="H56">
+        <v>-0.04281913616688114</v>
+      </c>
+      <c r="I56">
+        <v>-0.03505059702699838</v>
+      </c>
+      <c r="J56">
+        <v>-0.03590730262685615</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09126352400532581</v>
+        <v>0.06932955845839849</v>
       </c>
       <c r="C57">
-        <v>-0.03124273703992539</v>
+        <v>-0.03875012538844907</v>
       </c>
       <c r="D57">
-        <v>-0.03277450933586916</v>
+        <v>-0.004465849649387324</v>
       </c>
       <c r="E57">
-        <v>0.03718493278671163</v>
+        <v>0.01233410506372427</v>
       </c>
       <c r="F57">
-        <v>-0.02933419148914206</v>
+        <v>-0.06008773645978885</v>
       </c>
       <c r="G57">
-        <v>0.04518030766338155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02531457898551979</v>
+      </c>
+      <c r="H57">
+        <v>0.02794065759578622</v>
+      </c>
+      <c r="I57">
+        <v>0.003501729769880493</v>
+      </c>
+      <c r="J57">
+        <v>-0.04088027803140497</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1790460420125088</v>
+        <v>0.204701521560415</v>
       </c>
       <c r="C58">
-        <v>-0.03007529152896129</v>
+        <v>-0.1259809446033078</v>
       </c>
       <c r="D58">
-        <v>0.02653083292443923</v>
+        <v>-0.04817065333495402</v>
       </c>
       <c r="E58">
-        <v>0.1260191516273503</v>
+        <v>-0.008164813535586572</v>
       </c>
       <c r="F58">
-        <v>0.05978598335594718</v>
+        <v>-0.2418205510442892</v>
       </c>
       <c r="G58">
-        <v>0.03436059485718514</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1692593977016529</v>
+      </c>
+      <c r="H58">
+        <v>0.3636591574980766</v>
+      </c>
+      <c r="I58">
+        <v>0.2765111571648415</v>
+      </c>
+      <c r="J58">
+        <v>0.7236001179943636</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.0182611633268466</v>
+        <v>0.04136392888189522</v>
       </c>
       <c r="C59">
-        <v>0.1989593300695479</v>
+        <v>0.1735331768117959</v>
       </c>
       <c r="D59">
-        <v>0.001348402530634851</v>
+        <v>-0.09695084714252569</v>
       </c>
       <c r="E59">
-        <v>0.06532325218768142</v>
+        <v>-0.007672425071674699</v>
       </c>
       <c r="F59">
-        <v>-0.01670677496206081</v>
+        <v>-0.07267867894821912</v>
       </c>
       <c r="G59">
-        <v>0.006564191811661349</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.002806806567359981</v>
+      </c>
+      <c r="H59">
+        <v>-0.01836021146869175</v>
+      </c>
+      <c r="I59">
+        <v>-0.05396349174570454</v>
+      </c>
+      <c r="J59">
+        <v>0.02292860126560889</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1908277732055815</v>
+        <v>0.1849279346940827</v>
       </c>
       <c r="C60">
-        <v>0.09285319814413914</v>
+        <v>0.02483658581540167</v>
       </c>
       <c r="D60">
-        <v>-0.003050873237877618</v>
+        <v>-0.06853011318697472</v>
       </c>
       <c r="E60">
-        <v>0.1861903414940739</v>
+        <v>0.01250818170279753</v>
       </c>
       <c r="F60">
-        <v>-0.04869989652546212</v>
+        <v>-0.2054072096212277</v>
       </c>
       <c r="G60">
-        <v>0.01055754041392097</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.07089932357559614</v>
+      </c>
+      <c r="H60">
+        <v>-0.2773810093428359</v>
+      </c>
+      <c r="I60">
+        <v>0.09318813033843085</v>
+      </c>
+      <c r="J60">
+        <v>-0.03929762400244528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04649315352396635</v>
+        <v>0.03877491625080896</v>
       </c>
       <c r="C61">
-        <v>-0.007411103279423558</v>
+        <v>-0.02356451693032318</v>
       </c>
       <c r="D61">
-        <v>0.0002909047189420043</v>
+        <v>0.009868551335604511</v>
       </c>
       <c r="E61">
-        <v>0.03719538662990146</v>
+        <v>0.00565906362736009</v>
       </c>
       <c r="F61">
-        <v>-0.00701702147075519</v>
+        <v>-0.03875005244122612</v>
       </c>
       <c r="G61">
-        <v>0.0119158663529766</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.009765381614242509</v>
+      </c>
+      <c r="H61">
+        <v>-0.002675776870435165</v>
+      </c>
+      <c r="I61">
+        <v>0.03532293980156553</v>
+      </c>
+      <c r="J61">
+        <v>-0.02982394818987772</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04539551406671857</v>
+        <v>0.03139303872039459</v>
       </c>
       <c r="C63">
-        <v>-0.008788420447639974</v>
+        <v>-0.01748790997574657</v>
       </c>
       <c r="D63">
-        <v>-0.02030526363772432</v>
+        <v>0.005292504498845432</v>
       </c>
       <c r="E63">
-        <v>0.03652325510866074</v>
+        <v>0.01400334815360109</v>
       </c>
       <c r="F63">
-        <v>-0.006050917106286326</v>
+        <v>-0.02924301238431705</v>
       </c>
       <c r="G63">
-        <v>0.03329532298612516</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01088411497836915</v>
+      </c>
+      <c r="H63">
+        <v>0.04923177595604426</v>
+      </c>
+      <c r="I63">
+        <v>-0.04018182437919055</v>
+      </c>
+      <c r="J63">
+        <v>-0.02874724668859957</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.077724881397107</v>
+        <v>0.05727976403654057</v>
       </c>
       <c r="C64">
-        <v>-0.05323601702673217</v>
+        <v>-0.03860310393074395</v>
       </c>
       <c r="D64">
-        <v>-0.06442986542492758</v>
+        <v>0.03073159061830984</v>
       </c>
       <c r="E64">
-        <v>0.06047798352430669</v>
+        <v>0.04493325576216772</v>
       </c>
       <c r="F64">
-        <v>-0.05904370968118167</v>
+        <v>-0.05056758148255599</v>
       </c>
       <c r="G64">
-        <v>-0.01848813570625632</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05328766156060933</v>
+      </c>
+      <c r="H64">
+        <v>-0.007977548269011552</v>
+      </c>
+      <c r="I64">
+        <v>-0.04975863009193281</v>
+      </c>
+      <c r="J64">
+        <v>-0.0976616355034335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02000234161454078</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.0077777723127015</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.01000132263977764</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.006384328043529396</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.0008813100442482309</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02103502191655442</v>
+      </c>
+      <c r="H65">
+        <v>-0.004048046142202409</v>
+      </c>
+      <c r="I65">
+        <v>0.014485437885832</v>
+      </c>
+      <c r="J65">
+        <v>-0.004833611236662604</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.09067154458581878</v>
+        <v>0.06870690958516645</v>
       </c>
       <c r="C66">
-        <v>-0.03131752836305583</v>
+        <v>-0.05477805339280347</v>
       </c>
       <c r="D66">
-        <v>-0.03742332656448018</v>
+        <v>0.007041863357231851</v>
       </c>
       <c r="E66">
-        <v>0.08082049497940727</v>
+        <v>0.04646358307707345</v>
       </c>
       <c r="F66">
-        <v>-0.04009816342048617</v>
+        <v>-0.07049787797968488</v>
       </c>
       <c r="G66">
-        <v>0.01991965112672294</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01493981850091889</v>
+      </c>
+      <c r="H66">
+        <v>1.190976945565341e-07</v>
+      </c>
+      <c r="I66">
+        <v>0.02448611152704116</v>
+      </c>
+      <c r="J66">
+        <v>-0.07672920492820982</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06550042880531777</v>
+        <v>0.04746605043409782</v>
       </c>
       <c r="C67">
-        <v>0.00919387662637935</v>
+        <v>0.001200392798766853</v>
       </c>
       <c r="D67">
-        <v>-0.01462884867081189</v>
+        <v>-0.003051917857044174</v>
       </c>
       <c r="E67">
-        <v>0.02642880760339677</v>
+        <v>0.01051820004293385</v>
       </c>
       <c r="F67">
-        <v>-0.006344673534085428</v>
+        <v>-0.03961071797551995</v>
       </c>
       <c r="G67">
-        <v>-0.03048102469211537</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03494560825017497</v>
+      </c>
+      <c r="H67">
+        <v>-0.008226465213020165</v>
+      </c>
+      <c r="I67">
+        <v>0.03749652300964531</v>
+      </c>
+      <c r="J67">
+        <v>-0.01807940965378517</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.02363737185457776</v>
+        <v>0.05056076528833979</v>
       </c>
       <c r="C68">
-        <v>0.2418067678325835</v>
+        <v>0.2089588844469015</v>
       </c>
       <c r="D68">
-        <v>0.01789831378364241</v>
+        <v>-0.1096948946617392</v>
       </c>
       <c r="E68">
-        <v>0.04686660929061559</v>
+        <v>-0.02113012689480189</v>
       </c>
       <c r="F68">
-        <v>-0.009964916581157973</v>
+        <v>-0.05542371370285228</v>
       </c>
       <c r="G68">
-        <v>0.02328898800878288</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.003009569375217214</v>
+      </c>
+      <c r="H68">
+        <v>-0.01570174384244078</v>
+      </c>
+      <c r="I68">
+        <v>-0.1486084156364924</v>
+      </c>
+      <c r="J68">
+        <v>0.09304895924904401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.07112206406954463</v>
+        <v>0.07241337153579483</v>
       </c>
       <c r="C69">
-        <v>-0.01652327428944019</v>
+        <v>-0.0216904648351831</v>
       </c>
       <c r="D69">
-        <v>-0.02691659361253456</v>
+        <v>0.0009975285498292265</v>
       </c>
       <c r="E69">
-        <v>-0.02101298397850279</v>
+        <v>0.03200680123345841</v>
       </c>
       <c r="F69">
-        <v>-0.0002012770027162555</v>
+        <v>0.001773278993416427</v>
       </c>
       <c r="G69">
-        <v>0.03656366887235658</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02669426050840516</v>
+      </c>
+      <c r="H69">
+        <v>0.02659810029535306</v>
+      </c>
+      <c r="I69">
+        <v>-0.0001686149279872906</v>
+      </c>
+      <c r="J69">
+        <v>-0.03024670311438482</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.01834898672265463</v>
+        <v>0.05224722803247378</v>
       </c>
       <c r="C71">
-        <v>0.2757788131619493</v>
+        <v>0.2234533882018603</v>
       </c>
       <c r="D71">
-        <v>0.02298274717586563</v>
+        <v>-0.1226778879221947</v>
       </c>
       <c r="E71">
-        <v>0.0832821910825465</v>
+        <v>-0.04232730157001496</v>
       </c>
       <c r="F71">
-        <v>-0.01701564314995423</v>
+        <v>-0.07841452402231314</v>
       </c>
       <c r="G71">
-        <v>0.03401572465433029</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01354404970858322</v>
+      </c>
+      <c r="H71">
+        <v>-0.02400469270076804</v>
+      </c>
+      <c r="I71">
+        <v>-0.1194855755018932</v>
+      </c>
+      <c r="J71">
+        <v>0.04901604470522013</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1156613652477669</v>
+        <v>0.1243297317463171</v>
       </c>
       <c r="C72">
-        <v>0.00137364787789962</v>
+        <v>-0.03011198604702501</v>
       </c>
       <c r="D72">
-        <v>-0.04855719304691256</v>
+        <v>0.001113561773659571</v>
       </c>
       <c r="E72">
-        <v>0.09739594054157291</v>
+        <v>0.06247305349174808</v>
       </c>
       <c r="F72">
-        <v>0.01134320299218383</v>
+        <v>-0.08325144192204947</v>
       </c>
       <c r="G72">
-        <v>-0.01532498292570498</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03905216153963371</v>
+      </c>
+      <c r="H72">
+        <v>-0.01690370892890721</v>
+      </c>
+      <c r="I72">
+        <v>0.08325532243228362</v>
+      </c>
+      <c r="J72">
+        <v>0.07636310263105324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2957318097709156</v>
+        <v>0.2696580132989574</v>
       </c>
       <c r="C73">
-        <v>0.1626208300843056</v>
+        <v>0.03973097573068107</v>
       </c>
       <c r="D73">
-        <v>0.05008671900456419</v>
+        <v>-0.1234243400546906</v>
       </c>
       <c r="E73">
-        <v>0.3296488341755699</v>
+        <v>-0.03205146618803345</v>
       </c>
       <c r="F73">
-        <v>-0.02959197993951022</v>
+        <v>-0.3065916667748432</v>
       </c>
       <c r="G73">
-        <v>-0.02321286917989308</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1729215902381989</v>
+      </c>
+      <c r="H73">
+        <v>-0.4741550045935101</v>
+      </c>
+      <c r="I73">
+        <v>0.272796192184144</v>
+      </c>
+      <c r="J73">
+        <v>-0.07910411196129974</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1632826020738274</v>
+        <v>0.1516830881164011</v>
       </c>
       <c r="C74">
-        <v>-0.00281667517948315</v>
+        <v>-0.02697170573100715</v>
       </c>
       <c r="D74">
-        <v>-0.04688950634265751</v>
+        <v>-0.006626683096867166</v>
       </c>
       <c r="E74">
-        <v>-0.02128242061887984</v>
+        <v>0.04851754619460515</v>
       </c>
       <c r="F74">
-        <v>0.06193959892174091</v>
+        <v>0.05382973650867593</v>
       </c>
       <c r="G74">
-        <v>0.05709709493452807</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01687093433759568</v>
+      </c>
+      <c r="H74">
+        <v>-0.02907357528803314</v>
+      </c>
+      <c r="I74">
+        <v>-0.02667663956140504</v>
+      </c>
+      <c r="J74">
+        <v>-0.0817954361901793</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2329881484639301</v>
+        <v>0.2430312157468725</v>
       </c>
       <c r="C75">
-        <v>0.0005227928572584682</v>
+        <v>-0.02781699669800573</v>
       </c>
       <c r="D75">
-        <v>-0.07264567632343223</v>
+        <v>-0.02272078793093175</v>
       </c>
       <c r="E75">
-        <v>-0.1218918920141379</v>
+        <v>0.1055334764963955</v>
       </c>
       <c r="F75">
-        <v>0.03663363570080536</v>
+        <v>0.1477189331067654</v>
       </c>
       <c r="G75">
-        <v>0.04090555539134854</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.004806819116933207</v>
+      </c>
+      <c r="H75">
+        <v>-0.01788591008244837</v>
+      </c>
+      <c r="I75">
+        <v>-0.09088673856251424</v>
+      </c>
+      <c r="J75">
+        <v>-0.006233252506085142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2414756535354492</v>
+        <v>0.2653846820568457</v>
       </c>
       <c r="C76">
-        <v>0.01057463561785296</v>
+        <v>-0.009425220789743366</v>
       </c>
       <c r="D76">
-        <v>-0.1182343111138779</v>
+        <v>0.01112681578211421</v>
       </c>
       <c r="E76">
-        <v>-0.1293515132409715</v>
+        <v>0.1285075457955737</v>
       </c>
       <c r="F76">
-        <v>0.07815661083120858</v>
+        <v>0.1811685112340475</v>
       </c>
       <c r="G76">
-        <v>0.03914863212795443</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05128389598697339</v>
+      </c>
+      <c r="H76">
+        <v>-0.04261044070500867</v>
+      </c>
+      <c r="I76">
+        <v>-0.03253329270810592</v>
+      </c>
+      <c r="J76">
+        <v>-0.05774582687933476</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1340335427266906</v>
+        <v>0.1276402598001235</v>
       </c>
       <c r="C77">
-        <v>-0.04320667419111329</v>
+        <v>-0.06234625005082222</v>
       </c>
       <c r="D77">
-        <v>0.04254845880508469</v>
+        <v>0.01459448105182801</v>
       </c>
       <c r="E77">
-        <v>0.1440908601219139</v>
+        <v>-0.03239390991389411</v>
       </c>
       <c r="F77">
-        <v>-0.03395631754927941</v>
+        <v>-0.1603017701813631</v>
       </c>
       <c r="G77">
-        <v>-0.06325617403215206</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.008155366901361798</v>
+      </c>
+      <c r="H77">
+        <v>0.2320605729988652</v>
+      </c>
+      <c r="I77">
+        <v>-0.2588565072336731</v>
+      </c>
+      <c r="J77">
+        <v>-0.06271023765459195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.0816329893398062</v>
+        <v>0.07989899917154769</v>
       </c>
       <c r="C78">
-        <v>-0.04919570856748085</v>
+        <v>-0.06843335468459492</v>
       </c>
       <c r="D78">
-        <v>0.01531012213345948</v>
+        <v>0.03350847059099935</v>
       </c>
       <c r="E78">
-        <v>0.04748649695877048</v>
+        <v>0.009183324575739303</v>
       </c>
       <c r="F78">
-        <v>-0.01068434126259979</v>
+        <v>-0.0721180616344979</v>
       </c>
       <c r="G78">
-        <v>0.01415826079829527</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01129696336141273</v>
+      </c>
+      <c r="H78">
+        <v>0.02422715214794137</v>
+      </c>
+      <c r="I78">
+        <v>-0.03277317551863178</v>
+      </c>
+      <c r="J78">
+        <v>-0.04165452166706934</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07334729555681384</v>
+        <v>0.1543283207173316</v>
       </c>
       <c r="C80">
-        <v>-0.01807555702973158</v>
+        <v>0.4255320715824649</v>
       </c>
       <c r="D80">
-        <v>0.03929260200536609</v>
+        <v>0.874210364890233</v>
       </c>
       <c r="E80">
-        <v>-0.02631614608691635</v>
+        <v>-0.05487190509176568</v>
       </c>
       <c r="F80">
-        <v>0.1396344119332582</v>
+        <v>-0.05150292765558662</v>
       </c>
       <c r="G80">
-        <v>-0.9320649003550838</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04546367872088672</v>
+      </c>
+      <c r="H80">
+        <v>-0.05367971511009932</v>
+      </c>
+      <c r="I80">
+        <v>0.04402563211315567</v>
+      </c>
+      <c r="J80">
+        <v>0.09391949686528166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.168084304304348</v>
+        <v>0.1808116895792119</v>
       </c>
       <c r="C81">
-        <v>0.006744321949329941</v>
+        <v>-0.007981702914946237</v>
       </c>
       <c r="D81">
-        <v>-0.06922210582165852</v>
+        <v>-0.006693455978130642</v>
       </c>
       <c r="E81">
-        <v>-0.1617294002270392</v>
+        <v>0.08717866574509554</v>
       </c>
       <c r="F81">
-        <v>0.1037330077740355</v>
+        <v>0.162267778964058</v>
       </c>
       <c r="G81">
-        <v>0.03790559771391822</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02983176142432193</v>
+      </c>
+      <c r="H81">
+        <v>-0.01004664687718076</v>
+      </c>
+      <c r="I81">
+        <v>-0.0585682434507061</v>
+      </c>
+      <c r="J81">
+        <v>0.002255306371359949</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.09385326449400459</v>
+        <v>0.06907686885986833</v>
       </c>
       <c r="C83">
-        <v>-0.05823820250775281</v>
+        <v>-0.05308151917960532</v>
       </c>
       <c r="D83">
-        <v>0.06730922051884711</v>
+        <v>0.006256976468432906</v>
       </c>
       <c r="E83">
-        <v>0.006696758928362009</v>
+        <v>-0.03643519410979778</v>
       </c>
       <c r="F83">
-        <v>-0.05947355942132277</v>
+        <v>-0.04575265398659382</v>
       </c>
       <c r="G83">
-        <v>0.03378124730975301</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05914874927323684</v>
+      </c>
+      <c r="H83">
+        <v>0.02219848143710825</v>
+      </c>
+      <c r="I83">
+        <v>-0.03635549916072342</v>
+      </c>
+      <c r="J83">
+        <v>-0.07384861557497763</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.238014109574517</v>
+        <v>0.2510136446488707</v>
       </c>
       <c r="C85">
-        <v>-0.05207563580849584</v>
+        <v>-0.04963163821908809</v>
       </c>
       <c r="D85">
-        <v>-0.0654979407118626</v>
+        <v>0.01079792040866425</v>
       </c>
       <c r="E85">
-        <v>-0.1541665509088685</v>
+        <v>0.09314352311125618</v>
       </c>
       <c r="F85">
-        <v>0.06374707348731087</v>
+        <v>0.1849293206662553</v>
       </c>
       <c r="G85">
-        <v>0.004991517216667395</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.005045835509349957</v>
+      </c>
+      <c r="H85">
+        <v>0.02143483242980489</v>
+      </c>
+      <c r="I85">
+        <v>-0.06601312487354874</v>
+      </c>
+      <c r="J85">
+        <v>-0.05968116252207981</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04133757353369941</v>
+        <v>0.02562507363528802</v>
       </c>
       <c r="C86">
-        <v>-0.05166903976922929</v>
+        <v>-0.06085676049752044</v>
       </c>
       <c r="D86">
-        <v>-0.01524112968023883</v>
+        <v>0.02736119531326538</v>
       </c>
       <c r="E86">
-        <v>0.06464904737207228</v>
+        <v>0.01282845618194825</v>
       </c>
       <c r="F86">
-        <v>0.003149892946004471</v>
+        <v>-0.06832573857970668</v>
       </c>
       <c r="G86">
-        <v>0.02766225179690673</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.005143179906512252</v>
+      </c>
+      <c r="H86">
+        <v>0.06494543125857793</v>
+      </c>
+      <c r="I86">
+        <v>-0.03156534622708262</v>
+      </c>
+      <c r="J86">
+        <v>-0.03668092820587444</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.02581614557220772</v>
+        <v>0.03476091048518259</v>
       </c>
       <c r="C87">
-        <v>0.04966617702320603</v>
+        <v>0.009791482859546976</v>
       </c>
       <c r="D87">
-        <v>0.001511414655807812</v>
+        <v>-0.00911329911131138</v>
       </c>
       <c r="E87">
-        <v>0.09312480262164459</v>
+        <v>0.003469003809527255</v>
       </c>
       <c r="F87">
-        <v>0.02209589877613556</v>
+        <v>-0.09931945942950682</v>
       </c>
       <c r="G87">
-        <v>0.02128911423631569</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02541440291012409</v>
+      </c>
+      <c r="H87">
+        <v>0.01739638664228684</v>
+      </c>
+      <c r="I87">
+        <v>0.01451645658290524</v>
+      </c>
+      <c r="J87">
+        <v>-0.02065507310243071</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03989577170847895</v>
+        <v>0.03009882676276136</v>
       </c>
       <c r="C88">
-        <v>-0.03785063554195881</v>
+        <v>-0.0191685447189902</v>
       </c>
       <c r="D88">
-        <v>-0.008556995091979314</v>
+        <v>0.02066494678703688</v>
       </c>
       <c r="E88">
-        <v>-0.01374847268795869</v>
+        <v>0.01526393564752778</v>
       </c>
       <c r="F88">
-        <v>0.01702694312910739</v>
+        <v>0.01640710896699659</v>
       </c>
       <c r="G88">
-        <v>0.009802635479571989</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03239017789771452</v>
+      </c>
+      <c r="H88">
+        <v>0.03760090608191142</v>
+      </c>
+      <c r="I88">
+        <v>0.01850176829597576</v>
+      </c>
+      <c r="J88">
+        <v>-0.02900995890697246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01628352553013163</v>
+        <v>0.07063968648475202</v>
       </c>
       <c r="C89">
-        <v>0.4110250419558398</v>
+        <v>0.3418124532397425</v>
       </c>
       <c r="D89">
-        <v>0.1057916547616147</v>
+        <v>-0.1960665903559399</v>
       </c>
       <c r="E89">
-        <v>0.003488230837362642</v>
+        <v>-0.06650667000116771</v>
       </c>
       <c r="F89">
-        <v>-0.02527998931037255</v>
+        <v>-0.04055954907137736</v>
       </c>
       <c r="G89">
-        <v>0.04268551796191834</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03971949103859741</v>
+      </c>
+      <c r="H89">
+        <v>0.05411993721143427</v>
+      </c>
+      <c r="I89">
+        <v>-0.250911604397179</v>
+      </c>
+      <c r="J89">
+        <v>0.1108595994366209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.02005555022084944</v>
+        <v>0.0510033179772027</v>
       </c>
       <c r="C90">
-        <v>0.3053124829359949</v>
+        <v>0.2970478463118932</v>
       </c>
       <c r="D90">
-        <v>0.04606799227302063</v>
+        <v>-0.1513551523972034</v>
       </c>
       <c r="E90">
-        <v>0.04472127310840803</v>
+        <v>-0.05032655452431479</v>
       </c>
       <c r="F90">
-        <v>-0.02162084498211642</v>
+        <v>-0.03601409898181797</v>
       </c>
       <c r="G90">
-        <v>0.04315691943117149</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02049472128538633</v>
+      </c>
+      <c r="H90">
+        <v>0.01307338233016119</v>
+      </c>
+      <c r="I90">
+        <v>-0.2161669605615751</v>
+      </c>
+      <c r="J90">
+        <v>0.07700160247846302</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.2760265336020392</v>
+        <v>0.2958177909702444</v>
       </c>
       <c r="C91">
-        <v>-0.02857123997216828</v>
+        <v>-0.04043711416995562</v>
       </c>
       <c r="D91">
-        <v>-0.07739405704716555</v>
+        <v>-0.0045148978927043</v>
       </c>
       <c r="E91">
-        <v>-0.2867333981369329</v>
+        <v>0.08780795399250448</v>
       </c>
       <c r="F91">
-        <v>0.1003398041320111</v>
+        <v>0.2907251808699397</v>
       </c>
       <c r="G91">
-        <v>-0.03439971233754316</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02226410544622397</v>
+      </c>
+      <c r="H91">
+        <v>-0.00883514886353619</v>
+      </c>
+      <c r="I91">
+        <v>-0.1099503252362994</v>
+      </c>
+      <c r="J91">
+        <v>-0.03400158892027835</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.03809634336702559</v>
+        <v>0.1105231744948437</v>
       </c>
       <c r="C92">
-        <v>0.4136843992927481</v>
+        <v>0.3926631173767645</v>
       </c>
       <c r="D92">
-        <v>0.1645774641265219</v>
+        <v>-0.1741682296757675</v>
       </c>
       <c r="E92">
-        <v>-0.1233117076688173</v>
+        <v>-0.08696232333604462</v>
       </c>
       <c r="F92">
-        <v>0.06227330098586691</v>
+        <v>0.1155026932279385</v>
       </c>
       <c r="G92">
-        <v>-0.1256891669191895</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.08191553923140699</v>
+      </c>
+      <c r="H92">
+        <v>0.4392154359498754</v>
+      </c>
+      <c r="I92">
+        <v>0.6277693015079246</v>
+      </c>
+      <c r="J92">
+        <v>-0.3985388700269927</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.007179811751039402</v>
+        <v>0.05752442253594926</v>
       </c>
       <c r="C93">
-        <v>0.37235942820245</v>
+        <v>0.3531363352060163</v>
       </c>
       <c r="D93">
-        <v>0.07890260881685938</v>
+        <v>-0.1958307070441279</v>
       </c>
       <c r="E93">
-        <v>-0.02234444600000724</v>
+        <v>-0.08256946315555565</v>
       </c>
       <c r="F93">
-        <v>0.0005420929698465185</v>
+        <v>-0.005567926029840875</v>
       </c>
       <c r="G93">
-        <v>-0.03179312197980545</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03486951532545336</v>
+      </c>
+      <c r="H93">
+        <v>-0.01786921409149278</v>
+      </c>
+      <c r="I93">
+        <v>-0.147362128239952</v>
+      </c>
+      <c r="J93">
+        <v>0.09110800713941004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2715091002417608</v>
+        <v>0.3042035399713148</v>
       </c>
       <c r="C94">
-        <v>0.07142972408544443</v>
+        <v>-0.00100731610416457</v>
       </c>
       <c r="D94">
-        <v>-0.04865068858884312</v>
+        <v>-0.04714338646130049</v>
       </c>
       <c r="E94">
-        <v>-0.3464231446648172</v>
+        <v>0.1271269883109379</v>
       </c>
       <c r="F94">
-        <v>0.4058848570559226</v>
+        <v>0.3442643244728291</v>
       </c>
       <c r="G94">
-        <v>0.127958889304213</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2118837734062534</v>
+      </c>
+      <c r="H94">
+        <v>0.1296209430949667</v>
+      </c>
+      <c r="I94">
+        <v>-0.003924753792543515</v>
+      </c>
+      <c r="J94">
+        <v>0.160077132030337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1960603250608132</v>
+        <v>0.1303982770918462</v>
       </c>
       <c r="C95">
-        <v>0.01867402268228551</v>
+        <v>-0.07593207603562335</v>
       </c>
       <c r="D95">
-        <v>-0.01010353086967631</v>
+        <v>-0.07380670137092303</v>
       </c>
       <c r="E95">
-        <v>-0.3856409150113544</v>
+        <v>0.03990686432497547</v>
       </c>
       <c r="F95">
-        <v>-0.8380410277811604</v>
+        <v>0.07193025040386382</v>
       </c>
       <c r="G95">
-        <v>-0.09781906519792007</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8985206037711015</v>
+      </c>
+      <c r="H95">
+        <v>-0.1576628763848152</v>
+      </c>
+      <c r="I95">
+        <v>0.1357063527679336</v>
+      </c>
+      <c r="J95">
+        <v>0.2400963822032204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.225409104177508</v>
+        <v>0.2078559251144467</v>
       </c>
       <c r="C98">
-        <v>0.116108182723618</v>
+        <v>0.0311770540626614</v>
       </c>
       <c r="D98">
-        <v>0.04454662318608806</v>
+        <v>-0.08766618409963861</v>
       </c>
       <c r="E98">
-        <v>0.08515689480010492</v>
+        <v>-0.03008986513009098</v>
       </c>
       <c r="F98">
-        <v>-0.04237920592267452</v>
+        <v>-0.1573873256588877</v>
       </c>
       <c r="G98">
-        <v>0.05256895831031254</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07981741925814309</v>
+      </c>
+      <c r="H98">
+        <v>-0.3224727779639009</v>
+      </c>
+      <c r="I98">
+        <v>0.1568965011460096</v>
+      </c>
+      <c r="J98">
+        <v>0.00973193259505732</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02157148179224029</v>
+        <v>0.01602833294967955</v>
       </c>
       <c r="C101">
-        <v>-0.02301911273113654</v>
+        <v>-0.0276607361541011</v>
       </c>
       <c r="D101">
-        <v>-0.03157918964651028</v>
+        <v>0.01792911497595394</v>
       </c>
       <c r="E101">
-        <v>0.03022828718556097</v>
+        <v>0.03377978278205217</v>
       </c>
       <c r="F101">
-        <v>-0.01566825152299541</v>
+        <v>-0.06590701163260028</v>
       </c>
       <c r="G101">
-        <v>0.02749053809420006</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.0148119677430358</v>
+      </c>
+      <c r="H101">
+        <v>0.1088538614643108</v>
+      </c>
+      <c r="I101">
+        <v>0.0653377637670928</v>
+      </c>
+      <c r="J101">
+        <v>0.09698768871921123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1195498073662921</v>
+        <v>0.1199951665022221</v>
       </c>
       <c r="C102">
-        <v>-0.01743520053975199</v>
+        <v>-0.02013475873355977</v>
       </c>
       <c r="D102">
-        <v>-0.04343568481455773</v>
+        <v>0.01029876880602142</v>
       </c>
       <c r="E102">
-        <v>-0.08628006223086869</v>
+        <v>0.05479253826009324</v>
       </c>
       <c r="F102">
-        <v>0.007735709964996737</v>
+        <v>0.09682253927372556</v>
       </c>
       <c r="G102">
-        <v>-0.008380129326439322</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.01693016282100051</v>
+      </c>
+      <c r="H102">
+        <v>-0.0198526168392499</v>
+      </c>
+      <c r="I102">
+        <v>-0.06089224465747656</v>
+      </c>
+      <c r="J102">
+        <v>-0.03140555633985453</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01657661886027598</v>
+        <v>0.03164367259591813</v>
       </c>
       <c r="C103">
-        <v>0.0006955383078926066</v>
+        <v>-0.00199046917021672</v>
       </c>
       <c r="D103">
-        <v>-0.0127352098217393</v>
+        <v>0.009484576934056934</v>
       </c>
       <c r="E103">
-        <v>-0.03033691057361129</v>
+        <v>0.02098669389393445</v>
       </c>
       <c r="F103">
-        <v>0.01149188135432436</v>
+        <v>0.02899012582696833</v>
       </c>
       <c r="G103">
-        <v>0.01283486167681143</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0135713359301899</v>
+      </c>
+      <c r="H103">
+        <v>0.01636339540001214</v>
+      </c>
+      <c r="I103">
+        <v>-0.03244880704166365</v>
+      </c>
+      <c r="J103">
+        <v>-0.003312303581205875</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
